--- a/application/src/test/resources/ccd_testdefinition-missing-WorkBasketResultFields.xlsx
+++ b/application/src/test/resources/ccd_testdefinition-missing-WorkBasketResultFields.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatiho/Documents/hmcts/workspace/case-definition-store-app/application/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/application/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D71BF-8081-BE41-A94F-4654E89F91DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -27,10 +28,11 @@
     <sheet name="UserProfile" sheetId="12" r:id="rId13"/>
     <sheet name="AuthorisationCaseType" sheetId="13" r:id="rId14"/>
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId15"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId16"/>
-    <sheet name="AuthorisationCaseState" sheetId="17" r:id="rId17"/>
+    <sheet name="AuthorisationComplexType" sheetId="18" r:id="rId16"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId17"/>
+    <sheet name="AuthorisationCaseState" sheetId="17" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="275">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -885,17 +887,40 @@
   <si>
     <t>OpTIONAL</t>
   </si>
+  <si>
+    <t>AuthorisationComplexType</t>
+  </si>
+  <si>
+    <t>Must match ID on 'CaseType' tab
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>The Field ID should match an ID in the CaseField Tab
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>The complex type element (field) ID (ListElementId) should match the field attribute name used by the service team in creating the case
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>Must match ID role.  If a role doesn’t have a Row below that mean no access to.
+MaxLength: 100.</t>
+  </si>
+  <si>
+    <t>C - Create, R - Read, U - Update, D - Delete
+MustBe1OrManyOf: &lt;C,R,U,D&gt; MaxLength: 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1067,6 +1092,81 @@
       <color rgb="FFFFC000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF984807"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1500,11 +1600,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1703,10 +1806,28 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{4FCF85E4-4F53-FA40-A903-B5627E8C5A69}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{5861825E-398D-5240-BD8D-9B2A1E457E0D}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{F10C4A26-59BC-A24B-9C1E-C64DCF67E91C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1781,6 +1902,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2890,7 +3014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -3116,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -3478,7 +3602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3513,7 +3637,7 @@
       <c r="E1" s="102"/>
       <c r="F1" s="102"/>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A2" s="104"/>
       <c r="B2" s="104"/>
       <c r="C2" s="105" t="s">
@@ -3793,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -4486,7 +4610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -4684,8 +4808,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4696,7 +4820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -7362,7 +7486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8330,7 +8454,91 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C30A90-BF90-5448-BECF-86280DC6870F}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" style="157" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="157" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="157" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="157"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+    </row>
+    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="159" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="159" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="161" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="161" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="162" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="162" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:IU15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -12356,8 +12564,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16387,7 +16595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -16753,7 +16961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -17961,7 +18169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -18306,7 +18514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -19230,7 +19438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -19608,7 +19816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -20269,10 +20477,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -20923,7 +21131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/application/src/test/resources/ccd_testdefinition-missing-WorkBasketResultFields.xlsx
+++ b/application/src/test/resources/ccd_testdefinition-missing-WorkBasketResultFields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/application/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/development/ccd/ccd-definition-store-api/application/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D71BF-8081-BE41-A94F-4654E89F91DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4084946F-7EE0-FD4E-86C7-5AC7D8C70545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId17"/>
     <sheet name="AuthorisationCaseState" sheetId="17" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -8457,7 +8457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C30A90-BF90-5448-BECF-86280DC6870F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -20480,8 +20480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20777,7 +20777,9 @@
       <c r="F7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
         <v>56</v>
@@ -20816,7 +20818,9 @@
       <c r="F8" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
         <v>59</v>

--- a/application/src/test/resources/ccd_testdefinition-missing-WorkBasketResultFields.xlsx
+++ b/application/src/test/resources/ccd_testdefinition-missing-WorkBasketResultFields.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/application/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-definition-store-api/application/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D71BF-8081-BE41-A94F-4654E89F91DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72204F6-AD91-2A4D-B891-627A7B887189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
-    <sheet name="CaseType" sheetId="2" r:id="rId2"/>
-    <sheet name="CaseField" sheetId="3" r:id="rId3"/>
-    <sheet name="FixedLists" sheetId="4" r:id="rId4"/>
-    <sheet name="ComplexTypes" sheetId="5" r:id="rId5"/>
-    <sheet name="State" sheetId="6" r:id="rId6"/>
-    <sheet name="CaseEvent" sheetId="7" r:id="rId7"/>
-    <sheet name="CaseEventToFields" sheetId="8" r:id="rId8"/>
-    <sheet name="SearchInputFields" sheetId="9" r:id="rId9"/>
-    <sheet name="SearchResultFields" sheetId="10" r:id="rId10"/>
-    <sheet name="WorkBasketInputFields" sheetId="16" r:id="rId11"/>
-    <sheet name="CaseTypeTab" sheetId="11" r:id="rId12"/>
-    <sheet name="UserProfile" sheetId="12" r:id="rId13"/>
-    <sheet name="AuthorisationCaseType" sheetId="13" r:id="rId14"/>
-    <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId15"/>
-    <sheet name="AuthorisationComplexType" sheetId="18" r:id="rId16"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId17"/>
-    <sheet name="AuthorisationCaseState" sheetId="17" r:id="rId18"/>
+    <sheet name="Banner" sheetId="19" r:id="rId2"/>
+    <sheet name="CaseType" sheetId="2" r:id="rId3"/>
+    <sheet name="CaseField" sheetId="3" r:id="rId4"/>
+    <sheet name="FixedLists" sheetId="4" r:id="rId5"/>
+    <sheet name="ComplexTypes" sheetId="5" r:id="rId6"/>
+    <sheet name="State" sheetId="6" r:id="rId7"/>
+    <sheet name="CaseEvent" sheetId="7" r:id="rId8"/>
+    <sheet name="CaseEventToFields" sheetId="8" r:id="rId9"/>
+    <sheet name="SearchInputFields" sheetId="9" r:id="rId10"/>
+    <sheet name="SearchResultFields" sheetId="10" r:id="rId11"/>
+    <sheet name="WorkBasketInputFields" sheetId="16" r:id="rId12"/>
+    <sheet name="CaseTypeTab" sheetId="11" r:id="rId13"/>
+    <sheet name="UserProfile" sheetId="12" r:id="rId14"/>
+    <sheet name="AuthorisationCaseType" sheetId="13" r:id="rId15"/>
+    <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId16"/>
+    <sheet name="AuthorisationComplexType" sheetId="18" r:id="rId17"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId18"/>
+    <sheet name="AuthorisationCaseState" sheetId="17" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="286">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -909,6 +910,39 @@
   <si>
     <t>C - Create, R - Read, U - Update, D - Delete
 MustBe1OrManyOf: &lt;C,R,U,D&gt; MaxLength: 5</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>MaxLength:50</t>
+  </si>
+  <si>
+    <t>URL. Mx Length: 1000</t>
+  </si>
+  <si>
+    <t>BannerEnabled</t>
+  </si>
+  <si>
+    <t>BannerDescription</t>
+  </si>
+  <si>
+    <t>BannerUrlText</t>
+  </si>
+  <si>
+    <t>BannerUrl</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Click here to see it.&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>http://localhost:3451/test</t>
   </si>
 </sst>
 </file>
@@ -920,7 +954,7 @@
     <numFmt numFmtId="165" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1167,6 +1201,35 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1600,14 +1663,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1821,8 +1885,19 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="27" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 3" xfId="2" xr:uid="{4FCF85E4-4F53-FA40-A903-B5627E8C5A69}"/>
@@ -3240,6 +3315,529 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="56" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="56" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="56" customWidth="1"/>
+    <col min="7" max="11" width="8.83203125" style="56" customWidth="1"/>
+    <col min="12" max="256" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="62">
+        <v>1</v>
+      </c>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="62">
+        <v>2</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="62">
+        <v>3</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="62">
+        <v>1</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="62">
+        <v>2</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="62">
+        <v>3</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="62">
+        <v>4</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="62">
+        <v>5</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="62">
+        <v>6</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="62">
+        <v>7</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="62">
+        <v>8</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="62">
+        <v>9</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="62">
+        <v>10</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3601,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -3916,7 +4514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -4609,7 +5207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -4819,7 +5417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
@@ -7485,7 +8083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -8453,11 +9051,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C30A90-BF90-5448-BECF-86280DC6870F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -8537,7 +9135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:IU15"/>
   <sheetViews>
@@ -12564,7 +13162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU15"/>
   <sheetViews>
@@ -16595,6 +17193,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F68248E-0C34-2B46-A37D-2C7251F89B2B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="163" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="165"/>
+    </row>
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="166" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="166" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="167" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="167" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="168" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="169" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="170" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{04892CFD-5611-3D47-A518-8DEEF09D81DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
@@ -16960,7 +17639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
@@ -18168,7 +18847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -18513,7 +19192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
@@ -19437,7 +20116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -19815,7 +20494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
@@ -20476,7 +21155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -21128,527 +21807,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="56" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="56" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="56" customWidth="1"/>
-    <col min="7" max="11" width="8.83203125" style="56" customWidth="1"/>
-    <col min="12" max="256" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="62">
-        <v>1</v>
-      </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="62">
-        <v>2</v>
-      </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="62">
-        <v>3</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="62">
-        <v>1</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="62">
-        <v>2</v>
-      </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="62">
-        <v>3</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="62">
-        <v>4</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="62">
-        <v>5</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="62">
-        <v>6</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="62">
-        <v>7</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="62">
-        <v>8</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="62">
-        <v>9</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="62">
-        <v>10</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>